--- a/MainLab4/sorted_result.xlsx
+++ b/MainLab4/sorted_result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -50,12 +50,6 @@
     <t>34</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Name7</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -65,15 +59,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Name6</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -81,15 +66,6 @@
   </si>
   <si>
     <t>49</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Name10</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
   <si>
     <t>1</t>
@@ -154,7 +130,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -212,73 +188,40 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/MainLab4/sorted_result.xlsx
+++ b/MainLab4/sorted_result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,12 @@
     <t>34</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -59,6 +65,15 @@
     <t>35</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Name6</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -66,6 +81,15 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Name10</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>1</t>
@@ -130,7 +154,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -188,40 +212,73 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/MainLab4/sorted_result.xlsx
+++ b/MainLab4/sorted_result.xlsx
@@ -23,6 +23,75 @@
     <t>Age</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Name9</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Name6</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Name10</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -30,75 +99,6 @@
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Name9</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Name7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Name4</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Name6</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Name5</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Name10</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>61</t>
   </si>
   <si>
     <t>2</t>
@@ -190,29 +190,29 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
